--- a/data/excel_case/自动化用例.xlsx
+++ b/data/excel_case/自动化用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="12220"/>
+    <workbookView windowWidth="27260" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="优惠券模块" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>用例名</t>
   </si>
@@ -73,14 +73,61 @@
     "type":"in"
 }]</t>
   </si>
+  <si>
+    <t>打款确认接口上传凭证不能为空</t>
+  </si>
+  <si>
+    <t>1.打款确认不传凭证图片进行请求(#vouchers_null)</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/finance_manage/payment/confirm</t>
+  </si>
+  <si>
+    <t>[{
+    "actual":{
+        "data_sources":"last_request",
+        "expr":"$..msg",
+        "get_type":"jsonpath"
+    },
+    "expected":"打款凭证不能为空",
+    "type":"in"
+}]</t>
+  </si>
+  <si>
+    <t>已经收款审核过的审核单不能继续审核</t>
+  </si>
+  <si>
+    <t>1.新增B端保单(#base_add),
+2.新增金额为2元的保单收款(#amount_2),
+3.实收金额收款审核成功(#audit_successful_actual),
+4.再次审核该保单(#audit_successful_actual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/iyourcar_autobuy/backend/insurance/add,
+/iyourcar_autobuy/backend/insurance/add_income,
+/iyourcar_autobuy/backend/finance_manage/income/audit,
+/iyourcar_autobuy/backend/finance_manage/income/audit
+</t>
+  </si>
+  <si>
+    <t>[{
+    "actual":{
+        "data_sources":"last_request",
+        "expr":"$..msg",
+        "get_type":"jsonpath"
+    },
+    "expected":"该收款单非待审核状态",
+    "type":"in"
+}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -108,13 +155,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,14 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -146,67 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +199,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +266,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,30 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -534,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,162 +582,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,15 +1073,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.8125" customWidth="1"/>
+    <col min="1" max="1" width="41.5178571428571" customWidth="1"/>
     <col min="2" max="2" width="22.4642857142857" customWidth="1"/>
     <col min="3" max="3" width="69.9375" customWidth="1"/>
     <col min="4" max="4" width="74.1071428571429" customWidth="1"/>
@@ -1093,6 +1143,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" ht="159" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="159" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
